--- a/public/assets/template-excel/Data Siswa.xlsx
+++ b/public/assets/template-excel/Data Siswa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LaravelApp\project-skripsi\public\assets\template-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaravelApp\project-skripsi\public\assets\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356AD60-7C86-408B-9F7F-9452F24CD596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NISN</t>
   </si>
@@ -32,9 +33,6 @@
     <t>Nama Siswa</t>
   </si>
   <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -42,15 +40,12 @@
   </si>
   <si>
     <t>Tidak aktif</t>
-  </si>
-  <si>
-    <t>087656478376</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,46 +357,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1234565431</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template-excel/Data Siswa.xlsx
+++ b/public/assets/template-excel/Data Siswa.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaravelApp\project-skripsi\public\assets\template-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Simobel\Project-Skripsi\public\assets\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356AD60-7C86-408B-9F7F-9452F24CD596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7323E2-091A-4C41-B188-2CAAC6BB1601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -361,16 +370,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1234565431</v>
       </c>
